--- a/Account_BI.xlsx
+++ b/Account_BI.xlsx
@@ -148,7 +148,7 @@
     <x:t>TestScenario_4</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_4.TestCase_1</x:t>
+    <x:t>JiraTestCase_10956</x:t>
   </x:si>
   <x:si>
     <x:t>Delete Account</x:t>
